--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(SWIB)/500nodes/500.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(SWIB)/500nodes/500.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\500nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF85726-1006-491D-9A39-AB0565787DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D65DA-22A4-49DD-8C21-A71A093C56F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1550,15 +1550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="G40" workbookViewId="0">
       <selection activeCell="W44" sqref="W44:W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1607,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -1637,25 +1637,25 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>8666</v>
+        <v>15015</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>8666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>10563</v>
+        <v>16882</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>19318</v>
+        <v>28969</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>8755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>21196</v>
+        <v>30839</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>29775</v>
+        <v>39348</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1779,15 +1779,15 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>8579</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>31667</v>
+        <v>41252</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>41355</v>
+        <v>51247</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,15 +1845,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>9688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>43252</v>
+        <v>53137</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>52957</v>
+        <v>64711</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1911,15 +1911,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>9705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>54845</v>
+        <v>66576</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>65416</v>
+        <v>75820</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>10571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>67296</v>
+        <v>77701</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>78701</v>
+        <v>89244</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>11405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>80567</v>
+        <v>91113</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>88353</v>
+        <v>103448</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>7786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>90230</v>
+        <v>105331</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>101284</v>
+        <v>115980</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,15 +2175,15 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>11054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>103179</v>
+        <v>117883</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -2231,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>112568</v>
+        <v>128881</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2241,10 +2241,10 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>9389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2272,14 +2272,14 @@
       <c r="R12" s="2"/>
       <c r="T12">
         <f>AVERAGE(T2:T11)</f>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>9559.7999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1994</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K13" t="s">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>17</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>10462</v>
+        <v>11987</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>10462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -2368,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>12289</v>
+        <v>13807</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>20169</v>
+        <v>21835</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
@@ -2408,21 +2408,21 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>7880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -2434,25 +2434,25 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>22046</v>
+        <v>21836</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
       </c>
       <c r="J15">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>2</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="s">
         <v>3</v>
@@ -2464,31 +2464,31 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>31891</v>
+        <v>30546</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
       </c>
       <c r="T15">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>9845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -2500,25 +2500,25 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>33736</v>
+        <v>30547</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
       </c>
       <c r="J16">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>3</v>
@@ -2530,25 +2530,25 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>41685</v>
+        <v>38409</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
       </c>
       <c r="T16">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>7949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>43563</v>
+        <v>40288</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>52966</v>
+        <v>51345</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,15 +2606,15 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>9403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>11057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>54825</v>
+        <v>53205</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>64499</v>
+        <v>62390</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,15 +2672,15 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>9674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>66353</v>
+        <v>64256</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>75412</v>
+        <v>74027</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,10 +2738,10 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>9059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>77278</v>
+        <v>75866</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>87036</v>
+        <v>85511</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,15 +2804,15 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>9758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2830,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>88891</v>
+        <v>87354</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>98426</v>
+        <v>96179</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,15 +2870,15 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>9535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>100299</v>
+        <v>98011</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -2926,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>108487</v>
+        <v>110114</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -2936,10 +2936,10 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>8188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>12103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2967,14 +2967,14 @@
       <c r="R23" s="2"/>
       <c r="T23">
         <f>AVERAGE(T13:T22)</f>
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>9175.2999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9517.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -2997,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1997</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -3015,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>3</v>
@@ -3027,25 +3027,25 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>8733</v>
+        <v>12501</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>8733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>10553</v>
+        <v>14330</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
@@ -3093,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>18434</v>
+        <v>21456</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
@@ -3103,15 +3103,15 @@
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>7881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>20272</v>
+        <v>23296</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>27083</v>
+        <v>30970</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3169,15 +3169,15 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>6811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -3195,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>28915</v>
+        <v>32815</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
@@ -3225,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>36997</v>
+        <v>41797</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3235,15 +3235,15 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>8082</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>38814</v>
+        <v>43648</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>47408</v>
+        <v>50960</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,15 +3301,15 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>8594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>49237</v>
+        <v>52801</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>56647</v>
+        <v>59834</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3367,10 +3367,10 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>7410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>58464</v>
+        <v>61691</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>66912</v>
+        <v>71177</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,21 +3433,21 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>8448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
@@ -3459,25 +3459,25 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>68750</v>
+        <v>71178</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="s">
         <v>3</v>
@@ -3489,25 +3489,25 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>75671</v>
+        <v>79601</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
       </c>
       <c r="T31">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>6921</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>77517</v>
+        <v>81431</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -3555,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>85543</v>
+        <v>91197</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3565,15 +3565,15 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>8026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>87372</v>
+        <v>93028</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>94979</v>
+        <v>101179</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>7607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3666,10 +3666,10 @@
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>7851.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8445.7000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -3692,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1982</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K35" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>3</v>
@@ -3722,31 +3722,31 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>7942</v>
+        <v>9587</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>7942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -3758,25 +3758,25 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>9739</v>
+        <v>9588</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>3</v>
@@ -3788,25 +3788,25 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>18634</v>
+        <v>17933</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
       </c>
       <c r="T36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>8895</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -3824,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>20473</v>
+        <v>19744</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
@@ -3836,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="L37">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -3854,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>29034</v>
+        <v>28970</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
@@ -3864,15 +3864,15 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>8561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>30844</v>
+        <v>30786</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>39465</v>
+        <v>38605</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>8621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3956,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>41281</v>
+        <v>40404</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -3986,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>50473</v>
+        <v>48484</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -3996,15 +3996,15 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>9192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>52278</v>
+        <v>50298</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -4052,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>59948</v>
+        <v>57457</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,15 +4062,15 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>7670</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -4088,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>61750</v>
+        <v>59254</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="L41">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>69092</v>
+        <v>68075</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4128,15 +4128,15 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>7342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>70900</v>
+        <v>69866</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>80254</v>
+        <v>77503</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,10 +4194,10 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>9354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>82060</v>
+        <v>79313</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4250,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>91096</v>
+        <v>87289</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,15 +4260,15 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>9036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -4286,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>92916</v>
+        <v>89107</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
@@ -4316,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>100913</v>
+        <v>97031</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4326,18 +4326,18 @@
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>7997</v>
+        <v>7924</v>
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>9559.7999999999993</v>
+        <v>10992</v>
       </c>
       <c r="W44">
         <f>T12</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4369,18 +4369,18 @@
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>8461</v>
+        <v>8059.2</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>9175.2999999999993</v>
+        <v>9517.9</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -4403,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K46" t="s">
         <v>2</v>
@@ -4421,7 +4421,7 @@
         <v>17</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>3</v>
@@ -4433,33 +4433,33 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>7724</v>
+        <v>9523</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>7724</v>
+        <v>7534</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>7851.3</v>
+        <v>8445.7000000000007</v>
       </c>
       <c r="W46">
         <f>T34</f>
         <v>1842.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -4477,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>9512</v>
+        <v>11274</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
@@ -4507,7 +4507,7 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>16690</v>
+        <v>17317</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
@@ -4517,23 +4517,23 @@
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>7178</v>
+        <v>6043</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>8461</v>
+        <v>8059.2</v>
       </c>
       <c r="W47">
         <f>T45</f>
         <v>1842.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>18498</v>
+        <v>19084</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -4581,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>25234</v>
+        <v>26724</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
@@ -4591,23 +4591,23 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>6736</v>
+        <v>7640</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>7161.7</v>
+        <v>7151.7</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -4625,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>27019</v>
+        <v>28491</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -4637,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
@@ -4655,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>33882</v>
+        <v>35533</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
@@ -4665,23 +4665,23 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>6863</v>
+        <v>7042</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>6661.9</v>
+        <v>6690.1</v>
       </c>
       <c r="W49">
         <f>T67</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -4699,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>35662</v>
+        <v>37305</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>42228</v>
+        <v>45327</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4739,23 +4739,23 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>6566</v>
+        <v>8022</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>6167.5</v>
+        <v>6157.7</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -4773,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>44020</v>
+        <v>47101</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>50818</v>
+        <v>53819</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
@@ -4813,23 +4813,23 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>6798</v>
+        <v>6718</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>5957.5</v>
+        <v>5665</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>52605</v>
+        <v>55578</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>59477</v>
+        <v>62473</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,23 +4887,23 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>6872</v>
+        <v>6895</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>5756</v>
+        <v>5574.7</v>
       </c>
       <c r="W52">
         <f>T100</f>
         <v>1637.6</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4921,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>61239</v>
+        <v>64252</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -4951,7 +4951,7 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>68634</v>
+        <v>71038</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4961,23 +4961,23 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>7395</v>
+        <v>6786</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>5668</v>
+        <v>5398.8</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>70440</v>
+        <v>72786</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5007,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>77957</v>
+        <v>80401</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,10 +5035,10 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>7517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>79736</v>
+        <v>82183</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>87704</v>
+        <v>89405</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5101,10 +5101,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>7968</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5132,14 +5132,14 @@
       <c r="R56" s="2"/>
       <c r="T56">
         <f>AVERAGE(T46:T55)</f>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>7161.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7151.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -5162,13 +5162,13 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>17</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
         <v>3</v>
@@ -5192,25 +5192,25 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>7238</v>
+        <v>8328</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>7238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>8990</v>
+        <v>10078</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5240,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="L58">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
@@ -5258,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>15440</v>
+        <v>16761</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
@@ -5268,21 +5268,21 @@
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -5294,25 +5294,25 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>15441</v>
+        <v>18521</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K59" t="s">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
         <v>3</v>
@@ -5324,25 +5324,25 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>23171</v>
+        <v>25343</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>7730</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>24948</v>
+        <v>27095</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>31391</v>
+        <v>34013</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
@@ -5400,21 +5400,21 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>6443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5426,25 +5426,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>31392</v>
+        <v>35787</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5456,25 +5456,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>38556</v>
+        <v>42301</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>7164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>40350</v>
+        <v>44069</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>46607</v>
+        <v>51271</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,15 +5532,15 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>48373</v>
+        <v>53021</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5570,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>54666</v>
+        <v>59791</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5598,15 +5598,15 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>6293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -5624,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>56433</v>
+        <v>61527</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -5654,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>62812</v>
+        <v>68069</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
@@ -5664,15 +5664,15 @@
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>6379</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -5690,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>64582</v>
+        <v>69802</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>70749</v>
+        <v>76981</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5730,15 +5730,15 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>6167</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>72496</v>
+        <v>78733</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -5786,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>78994</v>
+        <v>84700</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5796,10 +5796,10 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>6498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5827,14 +5827,14 @@
       <c r="R67" s="2"/>
       <c r="T67">
         <f>AVERAGE(T57:T66)</f>
-        <v>1432.9</v>
+        <v>2047</v>
       </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>6661.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6690.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -5857,13 +5857,13 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K68" t="s">
         <v>2</v>
@@ -5875,7 +5875,7 @@
         <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
         <v>3</v>
@@ -5887,25 +5887,25 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>7074</v>
+        <v>8185</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>7074</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -5923,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>8814</v>
+        <v>9909</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -5953,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>15125</v>
+        <v>16002</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
@@ -5963,15 +5963,15 @@
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>6311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -5989,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>16855</v>
+        <v>17737</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
@@ -6001,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -6019,7 +6019,7 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>22553</v>
+        <v>23727</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
@@ -6029,15 +6029,15 @@
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>5698</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -6055,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>24306</v>
+        <v>25493</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
@@ -6067,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
@@ -6085,7 +6085,7 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>30716</v>
+        <v>31597</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
@@ -6095,15 +6095,15 @@
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>6410</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -6121,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>32454</v>
+        <v>33338</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6133,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -6151,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>38118</v>
+        <v>39485</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
@@ -6161,15 +6161,15 @@
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>5664</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -6187,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>39889</v>
+        <v>41201</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
@@ -6199,7 +6199,7 @@
         <v>2</v>
       </c>
       <c r="L73">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
@@ -6217,7 +6217,7 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>45782</v>
+        <v>47552</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
@@ -6227,21 +6227,21 @@
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -6253,25 +6253,25 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>45783</v>
+        <v>49261</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K74" t="s">
         <v>2</v>
       </c>
       <c r="L74">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="s">
         <v>3</v>
@@ -6283,25 +6283,25 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>52903</v>
+        <v>55294</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>7120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -6319,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>54632</v>
+        <v>57007</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
@@ -6331,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>60498</v>
+        <v>63819</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
@@ -6359,15 +6359,15 @@
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>5866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>62238</v>
+        <v>65537</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>67941</v>
+        <v>71380</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>5703</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -6451,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>69657</v>
+        <v>73103</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>75593</v>
+        <v>79118</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
@@ -6491,10 +6491,10 @@
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>5936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6522,14 +6522,14 @@
       <c r="R78" s="2"/>
       <c r="T78">
         <f>AVERAGE(T68:T77)</f>
-        <v>1637.6</v>
+        <v>2047</v>
       </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>6167.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>6157.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>17</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -6552,13 +6552,13 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K79" t="s">
         <v>2</v>
@@ -6570,7 +6570,7 @@
         <v>17</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>3</v>
@@ -6582,31 +6582,31 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>6621</v>
+        <v>7889</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>6621</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -6618,25 +6618,25 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>8335</v>
+        <v>7890</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
       </c>
       <c r="J80">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>2</v>
       </c>
       <c r="L80">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
         <v>3</v>
@@ -6648,31 +6648,31 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>14421</v>
+        <v>13284</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
       </c>
       <c r="T80">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>6086</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -6684,25 +6684,25 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>16171</v>
+        <v>13285</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K81" t="s">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="s">
         <v>3</v>
@@ -6714,31 +6714,31 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>22119</v>
+        <v>18785</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
       </c>
       <c r="T81">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>5948</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6750,25 +6750,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>23840</v>
+        <v>18786</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -6780,25 +6780,25 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>29611</v>
+        <v>24331</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>5771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -6816,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>31355</v>
+        <v>26008</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -6828,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -6846,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>37131</v>
+        <v>31756</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
@@ -6856,15 +6856,15 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>5776</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -6882,7 +6882,7 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>38872</v>
+        <v>33464</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
@@ -6894,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="L84">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
@@ -6912,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>44201</v>
+        <v>39308</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
@@ -6922,15 +6922,15 @@
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>5329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -6948,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>45882</v>
+        <v>40996</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
@@ -6960,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
@@ -6978,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>51922</v>
+        <v>46492</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
@@ -6988,15 +6988,15 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
@@ -7014,7 +7014,7 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>53632</v>
+        <v>48190</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
@@ -7026,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="L86">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
@@ -7044,7 +7044,7 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>59486</v>
+        <v>53852</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
@@ -7054,15 +7054,15 @@
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>5854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7080,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>61201</v>
+        <v>55542</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7110,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>67187</v>
+        <v>61328</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7120,15 +7120,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>5986</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>68916</v>
+        <v>63034</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7158,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7176,7 +7176,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>75080</v>
+        <v>68831</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7186,10 +7186,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>6164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7217,14 +7217,14 @@
       <c r="R89" s="2"/>
       <c r="T89">
         <f>AVERAGE(T79:T88)</f>
-        <v>1842.3</v>
+        <v>1432.9</v>
       </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>5957.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>17</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -7247,13 +7247,13 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1991</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K90" t="s">
         <v>2</v>
@@ -7265,7 +7265,7 @@
         <v>17</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="s">
         <v>3</v>
@@ -7277,31 +7277,31 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>6477</v>
+        <v>7790</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>6477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7313,25 +7313,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>8201</v>
+        <v>7791</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -7343,31 +7343,31 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>13843</v>
+        <v>13206</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>5642</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>3</v>
@@ -7379,25 +7379,25 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>15556</v>
+        <v>13207</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
       </c>
       <c r="J92">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
         <v>2</v>
       </c>
       <c r="L92">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="s">
         <v>3</v>
@@ -7409,31 +7409,31 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>21388</v>
+        <v>18895</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
       </c>
       <c r="T92">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>5832</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
@@ -7445,25 +7445,25 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>21389</v>
+        <v>20641</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K93" t="s">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="s">
         <v>3</v>
@@ -7475,25 +7475,25 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>27860</v>
+        <v>26156</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
       </c>
       <c r="T93">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>6471</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7511,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>29569</v>
+        <v>27877</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7541,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>35072</v>
+        <v>33428</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7551,15 +7551,15 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -7577,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>36773</v>
+        <v>35164</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -7589,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -7607,7 +7607,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>42302</v>
+        <v>40631</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -7617,15 +7617,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>5529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7643,7 +7643,7 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>44011</v>
+        <v>42363</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -7655,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -7673,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>49633</v>
+        <v>47791</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
@@ -7683,15 +7683,15 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>5622</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -7709,7 +7709,7 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>51362</v>
+        <v>49535</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
@@ -7739,7 +7739,7 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>56788</v>
+        <v>55095</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
@@ -7749,15 +7749,15 @@
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>5426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -7775,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>58489</v>
+        <v>56852</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -7805,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>63929</v>
+        <v>62508</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -7815,15 +7815,15 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>5440</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -7841,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>65648</v>
+        <v>64262</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
@@ -7853,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
@@ -7871,7 +7871,7 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>71266</v>
+        <v>69930</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
@@ -7881,10 +7881,10 @@
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>5618</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7916,10 +7916,10 @@
       </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>5756</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5574.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>17</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -7942,13 +7942,13 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K101" t="s">
         <v>2</v>
@@ -7960,7 +7960,7 @@
         <v>17</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="s">
         <v>3</v>
@@ -7972,25 +7972,25 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>6310</v>
+        <v>7559</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>6310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -8008,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>8073</v>
+        <v>9307</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
@@ -8020,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="L102">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
@@ -8038,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>13557</v>
+        <v>14690</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
@@ -8048,21 +8048,21 @@
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>5484</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>3</v>
@@ -8074,25 +8074,25 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>15371</v>
+        <v>14691</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
       </c>
       <c r="J103">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K103" t="s">
         <v>2</v>
       </c>
       <c r="L103">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="s">
         <v>3</v>
@@ -8104,31 +8104,31 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>20737</v>
+        <v>20066</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
       </c>
       <c r="T103">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>5366</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -8140,25 +8140,25 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>20738</v>
+        <v>21883</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K104" t="s">
         <v>2</v>
       </c>
       <c r="L104">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="s">
         <v>3</v>
@@ -8170,25 +8170,25 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>27517</v>
+        <v>27259</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>29298</v>
+        <v>29068</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
@@ -8218,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -8236,7 +8236,7 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>34657</v>
+        <v>34464</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
@@ -8246,15 +8246,15 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>5359</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -8272,7 +8272,7 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>36465</v>
+        <v>36301</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
@@ -8284,7 +8284,7 @@
         <v>2</v>
       </c>
       <c r="L106">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
@@ -8302,7 +8302,7 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>41938</v>
+        <v>41651</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
@@ -8312,21 +8312,21 @@
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>5473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
@@ -8338,25 +8338,25 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>43760</v>
+        <v>41652</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
       </c>
       <c r="J107">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K107" t="s">
         <v>2</v>
       </c>
       <c r="L107">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="s">
         <v>3</v>
@@ -8368,25 +8368,25 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>49144</v>
+        <v>47058</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
       </c>
       <c r="T107">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>5384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>50982</v>
+        <v>48871</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
@@ -8416,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="L108">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
@@ -8434,7 +8434,7 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>56647</v>
+        <v>54292</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
@@ -8444,21 +8444,21 @@
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>5665</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -8470,25 +8470,25 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>58489</v>
+        <v>54293</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
       </c>
       <c r="J109">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K109" t="s">
         <v>2</v>
       </c>
       <c r="L109">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
         <v>3</v>
@@ -8500,31 +8500,31 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>63948</v>
+        <v>59662</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
       </c>
       <c r="T109">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>5459</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -8536,25 +8536,25 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>65782</v>
+        <v>59663</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
       </c>
       <c r="J110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>3</v>
@@ -8566,34 +8566,28 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>71183</v>
+        <v>65041</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
       </c>
       <c r="T110">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>5401</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>5668</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T112">
-        <f>AVERAGE(T101:T110)</f>
-        <v>1637.6</v>
+        <v>5398.8</v>
       </c>
     </row>
   </sheetData>
@@ -8610,16 +8604,16 @@
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8642,322 +8636,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
       <c r="B2">
-        <v>9559.7999999999993</v>
+        <v>10992</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.47798999999999991</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>3854.2647335718325</v>
+        <v>3724.5269286754005</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.47799000000000003</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>3854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
       <c r="B3">
-        <v>9175.2999999999993</v>
+        <v>9517.9</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.45876499999999992</v>
+        <v>0.47589500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>4015.7815003324149</v>
+        <v>3441.0951995713335</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.45876499999999998</v>
+        <v>0.47589500000000001</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
       <c r="B4">
-        <v>7851.3</v>
+        <v>8445.7000000000007</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.392565</v>
+        <v>0.42228500000000008</v>
       </c>
       <c r="D4" s="1">
         <v>1842.3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>4692.9807802529513</v>
+        <v>4362.6934416330196</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.392565</v>
+        <v>0.42228500000000002</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>4692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
       <c r="B5">
-        <v>8461</v>
+        <v>8059.2</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.42304999999999998</v>
+        <v>0.40295999999999998</v>
       </c>
       <c r="D5" s="1">
         <v>1842.3</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4354.8043966434225</v>
+        <v>4571.9178082191784</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.42304999999999998</v>
+        <v>0.40295999999999998</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
       <c r="B6">
-        <v>7161.7</v>
+        <v>7151.7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.35808499999999999</v>
+        <v>0.35758499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>5144.8678386416632</v>
+        <v>5724.5130528405834</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.35808499999999999</v>
+        <v>0.35758499999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
       <c r="B7">
-        <v>6661.9</v>
+        <v>6690.1</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.33309499999999997</v>
+        <v>0.334505</v>
       </c>
       <c r="D7" s="1">
-        <v>1432.9</v>
+        <v>2047</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>4301.7757696753188</v>
+        <v>6119.4899926757453</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.33309499999999997</v>
+        <v>0.334505</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
       <c r="B8">
-        <v>6167.5</v>
+        <v>6157.7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.30837500000000001</v>
+        <v>0.30788500000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>1637.6</v>
+        <v>2047</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>5310.4175111471422</v>
+        <v>6648.5863228153366</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.30837500000000001</v>
+        <v>0.30788500000000002</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>5310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
       <c r="B9">
-        <v>5957.5</v>
+        <v>5665</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.297875</v>
+        <v>0.28325</v>
       </c>
       <c r="D9" s="1">
-        <v>1842.3</v>
+        <v>1432.9</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>6184.8090642047837</v>
+        <v>5058.7819947043254</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.297875</v>
+        <v>0.28325</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
       <c r="B10">
-        <v>5756</v>
+        <v>5574.7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.2878</v>
+        <v>0.27873500000000001</v>
       </c>
       <c r="D10" s="1">
         <v>1637.6</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>5690.0625434329395</v>
+        <v>5875.1143559294669</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.2878</v>
+        <v>0.27873500000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
       <c r="B11">
-        <v>5668</v>
+        <v>5398.8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.28339999999999999</v>
+        <v>0.26994000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>5778.4050811573743</v>
+        <v>4549.8999777728386</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.28339999999999999</v>
+        <v>0.26994000000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.26252500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.25872000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.25234499999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.25135999999999997</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.24887999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.24548500000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.24379999999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.24027499999999999</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.242585</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.240735</v>
       </c>
@@ -8976,12 +8970,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8992,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -9003,7 +8997,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9014,7 +9008,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9025,7 +9019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9036,7 +9030,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9047,7 +9041,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9058,7 +9052,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9069,7 +9063,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9080,7 +9074,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9091,7 +9085,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
